--- a/ValidationParser/tests/Football Tests.xlsx
+++ b/ValidationParser/tests/Football Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="9960" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="9960" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,23 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
+    <sheet name="key_obj tests" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'key_obj tests'!$B$1:$V$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$P$1536</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$R$1536</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet6!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9863" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="1869">
   <si>
     <t>self.fb(length=0)</t>
   </si>
@@ -5240,6 +5248,408 @@
   </si>
   <si>
     <t>caps_sensitive': False</t>
+  </si>
+  <si>
+    <t>arg_1</t>
+  </si>
+  <si>
+    <t>arg_2</t>
+  </si>
+  <si>
+    <t>seg_kwarg</t>
+  </si>
+  <si>
+    <t>msg_kwarg</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>msg_kwargs</t>
+  </si>
+  <si>
+    <t>seg_kwargs</t>
+  </si>
+  <si>
+    <t>as_segment</t>
+  </si>
+  <si>
+    <t>msg_dict_key</t>
+  </si>
+  <si>
+    <t>seg_dict_key</t>
+  </si>
+  <si>
+    <t>seg_dict_sm_key</t>
+  </si>
+  <si>
+    <t>msg_dict_sm_key</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>seg_kwarg_key2</t>
+  </si>
+  <si>
+    <t>msg_kwarg_key2</t>
+  </si>
+  <si>
+    <t>msg_dict</t>
+  </si>
+  <si>
+    <t>seg_dict</t>
+  </si>
+  <si>
+    <t>msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>seg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>seg-msg-None-None</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>msg-None-msg_dict-None</t>
+  </si>
+  <si>
+    <t>msg-None-None-None</t>
+  </si>
+  <si>
+    <t>msg-None-seg_kwarg_dict-None</t>
+  </si>
+  <si>
+    <t>msg-None-seg_kwarg-None</t>
+  </si>
+  <si>
+    <t>None-msg-None-msg_dict</t>
+  </si>
+  <si>
+    <t>None-msg-None-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>None-msg-None-msg_kwargs</t>
+  </si>
+  <si>
+    <t>None-msg-None-None</t>
+  </si>
+  <si>
+    <t>None-msg-seg_kwarg-msg_dict</t>
+  </si>
+  <si>
+    <t>None-msg-seg_kwarg-msg_kwarg</t>
+  </si>
+  <si>
+    <t>None-msg-seg_kwarg-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>None-msg-seg_kwarg-None</t>
+  </si>
+  <si>
+    <t>None-None-None-msg_kwargs</t>
+  </si>
+  <si>
+    <t>None-None-None-None</t>
+  </si>
+  <si>
+    <t>None-None-seg_kwargs-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-None-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-None-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-None-msg_kwargs</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_dict-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_dict-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_dict-msg_kwargs</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_dict-None</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg_dict-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg_dict-msg_kwarg</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg_dict-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg_dict-None</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg-msg_kwarg</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg-msg_kwarg_dict</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwarg-None</t>
+  </si>
+  <si>
+    <t>seg-msg-seg_kwargs-msg_dict</t>
+  </si>
+  <si>
+    <t>seg-None-None-None</t>
+  </si>
+  <si>
+    <t>seg-None-seg_dict-None</t>
+  </si>
+  <si>
+    <t>seg-None-seg_kwarg_dict-None</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>args_kwargs</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">), </t>
+  </si>
+  <si>
+    <t>, (</t>
+  </si>
+  <si>
+    <t>),</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -5293,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5318,6 +5728,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5333,6 +5749,2142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="dstrohl" refreshedDate="42946.620161226849" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="65">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="W2:W67" sheet="key_obj tests"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="seg-msg-None-None" numFmtId="0">
+      <sharedItems count="34">
+        <s v="seg-msg-None-msg_dict"/>
+        <s v="seg-msg-seg_dict-None"/>
+        <s v="seg-msg-seg_dict-msg_dict"/>
+        <s v="seg-None-None-None"/>
+        <s v="None-msg-None-None"/>
+        <s v="None-msg-None-msg_dict"/>
+        <s v="msg-None-None-None"/>
+        <s v="msg-None-msg_dict-None"/>
+        <s v="seg-msg-seg_kwarg-msg_kwarg"/>
+        <s v="seg-msg-seg_kwarg-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_kwarg"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_kwarg_dict"/>
+        <s v="None-None-None-None"/>
+        <s v="None-msg-seg_kwarg-msg_kwarg"/>
+        <s v="None-msg-seg_kwarg-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_kwarg-None"/>
+        <s v="seg-msg-seg_kwarg-msg_dict"/>
+        <s v="seg-msg-seg_kwarg_dict-None"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_dict"/>
+        <s v="None-msg-seg_kwarg-None"/>
+        <s v="None-msg-seg_kwarg-msg_dict"/>
+        <s v="msg-None-seg_kwarg-None"/>
+        <s v="msg-None-seg_kwarg_dict-None"/>
+        <s v="seg-None-seg_kwarg_dict-None"/>
+        <s v="seg-msg-None-msg_kwargs"/>
+        <s v="seg-msg-None-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_dict-msg_kwargs"/>
+        <s v="seg-msg-seg_dict-msg_kwarg_dict"/>
+        <s v="None-None-None-msg_kwargs"/>
+        <s v="None-msg-None-msg_kwargs"/>
+        <s v="None-msg-None-msg_kwarg_dict"/>
+        <s v="seg-None-seg_dict-None"/>
+        <s v="None-None-seg_kwargs-msg_dict"/>
+        <s v="seg-msg-seg_kwargs-msg_dict"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="dstrohl" refreshedDate="42946.62063553241" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:V1048576" sheet="key_obj tests"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="topic" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Index" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="66"/>
+    </cacheField>
+    <cacheField name="arg_1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="arg_2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="seg_kwarg" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="msg_kwarg" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="raise" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="as_segment" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="seg" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="msg" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="seg_kwargs" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="msg_kwargs" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="result_key" numFmtId="0">
+      <sharedItems containsBlank="1" count="36">
+        <s v="seg-msg-None-None"/>
+        <s v="seg-msg-None-msg_dict"/>
+        <s v="seg-msg-seg_dict-None"/>
+        <s v="seg-msg-seg_dict-msg_dict"/>
+        <s v="seg-None-None-None"/>
+        <s v="None-msg-None-None"/>
+        <s v="None-msg-None-msg_dict"/>
+        <s v="msg-None-None-None"/>
+        <s v="msg-None-msg_dict-None"/>
+        <s v="seg-msg-seg_kwarg-msg_kwarg"/>
+        <s v="seg-msg-seg_kwarg-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_kwarg"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_kwarg_dict"/>
+        <s v="None-None-None-None"/>
+        <s v="None-msg-seg_kwarg-msg_kwarg"/>
+        <s v="None-msg-seg_kwarg-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_kwarg-None"/>
+        <s v="seg-msg-seg_kwarg-msg_dict"/>
+        <s v="seg-msg-seg_kwarg_dict-None"/>
+        <s v="seg-msg-seg_kwarg_dict-msg_dict"/>
+        <s v="None-msg-seg_kwarg-None"/>
+        <s v="None-msg-seg_kwarg-msg_dict"/>
+        <s v="msg-None-seg_kwarg-None"/>
+        <s v="msg-None-seg_kwarg_dict-None"/>
+        <s v="seg-None-seg_kwarg_dict-None"/>
+        <s v="seg-msg-None-msg_kwargs"/>
+        <s v="seg-msg-None-msg_kwarg_dict"/>
+        <s v="seg-msg-seg_dict-msg_kwargs"/>
+        <s v="seg-msg-seg_dict-msg_kwarg_dict"/>
+        <s v="None-None-None-msg_kwargs"/>
+        <s v="None-msg-None-msg_kwargs"/>
+        <s v="None-msg-None-msg_kwarg_dict"/>
+        <s v="seg-None-seg_dict-None"/>
+        <s v="None-None-seg_kwargs-msg_dict"/>
+        <s v="seg-msg-seg_kwargs-msg_dict"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
+  <r>
+    <s v="2 args"/>
+    <n v="1"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2 args"/>
+    <n v="2"/>
+    <s v="seg"/>
+    <s v="msg_dict_key"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2 args"/>
+    <n v="3"/>
+    <s v="seg_dict_key"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="None"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="2 args"/>
+    <n v="4"/>
+    <s v="seg_dict_key"/>
+    <s v="msg_dict_key"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="msg_dict"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="2 args"/>
+    <n v="5"/>
+    <s v="seg"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2 args"/>
+    <n v="6"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="7"/>
+    <s v="seg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="8"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="9"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="10"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="1"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="11"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="1"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <s v="None"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="12"/>
+    <s v="seg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="None"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="1 arg"/>
+    <n v="13"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="14"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="15"/>
+    <s v="seg"/>
+    <s v="msg_dict_key"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="16"/>
+    <s v="seg_dict_key"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="msg_kwarg"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="17"/>
+    <s v="seg_dict_key"/>
+    <s v="msg_dict_key"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="18"/>
+    <s v="seg"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="19"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="20"/>
+    <s v="seg"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="seg_kwarg_key2"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="2 args - 2 kwarg"/>
+    <n v="21"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_key2"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="22"/>
+    <s v="seg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="23"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="24"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="25"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="26"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="27"/>
+    <s v="seg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg 2-kwarg"/>
+    <n v="28"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="29"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="30"/>
+    <s v="seg"/>
+    <s v="msg_dict_key"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="31"/>
+    <s v="seg_dict_key"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="None"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="32"/>
+    <s v="seg_dict_key"/>
+    <s v="msg_dict_key"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="msg_dict"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="33"/>
+    <s v="seg"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="2 args - msg_kwarg"/>
+    <n v="34"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="35"/>
+    <s v="seg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="36"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="37"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="38"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="1"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="39"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <b v="1"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="None"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="40"/>
+    <s v="seg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="None"/>
+    <s v="seg_kwarg_dict"/>
+    <s v="None"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="1 arg - msg_kwarg"/>
+    <n v="41"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="42"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwargs"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="43"/>
+    <s v="seg"/>
+    <s v="msg_dict_key"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="44"/>
+    <s v="seg_dict_key"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="msg_kwargs"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="45"/>
+    <s v="seg_dict_key"/>
+    <s v="msg_dict_key"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="46"/>
+    <s v="seg"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="2 args - seg_kwarg"/>
+    <n v="47"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwargs"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="48"/>
+    <s v="seg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="msg_kwargs"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="49"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwargs"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="50"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <b v="0"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="51"/>
+    <s v="msg"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="52"/>
+    <s v="msg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <b v="1"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="53"/>
+    <s v="seg_dict_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="1 arg - seg_kwarg"/>
+    <n v="54"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_kwarg_dict"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <s v="0 args - msg_kwarg"/>
+    <n v="55"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="None"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="0 args - msg_kwarg"/>
+    <n v="56"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_dict_key"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="None"/>
+    <s v="seg_dict"/>
+    <s v="None"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="0 args - msg_kwarg"/>
+    <n v="57"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="msg_dict_sm_key"/>
+    <s v="None"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="0 args - seg_kwarg"/>
+    <n v="58"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="0 args - seg_kwarg"/>
+    <n v="59"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_dict_key"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="0 args - seg_kwarg"/>
+    <n v="60"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="None"/>
+    <s v="msg_dict_sm_key"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="None"/>
+    <s v="msg_dict"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="61"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="62"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_dict_key"/>
+    <s v="msg_kwarg"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="None"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="63"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict_key"/>
+    <b v="1"/>
+    <s v="NA"/>
+    <s v="None"/>
+    <s v="None"/>
+    <s v="seg_kwargs"/>
+    <s v="msg_dict"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="64"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_kwarg"/>
+    <s v="msg_dict_sm_key"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_kwargs"/>
+    <s v="msg_dict"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="65"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_dict_sm_key"/>
+    <s v="msg_kwarg"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="msg_kwargs"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <s v="0 args - 2_kwarg"/>
+    <n v="66"/>
+    <s v="BLANK"/>
+    <s v="BLANK"/>
+    <s v="seg_dict_sm_key"/>
+    <s v="msg_dict_sm_key"/>
+    <b v="0"/>
+    <s v="NA"/>
+    <s v="seg"/>
+    <s v="msg"/>
+    <s v="seg_dict"/>
+    <s v="msg_dict"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="33"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="24"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66196,7 +68748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -66958,7 +69510,7 @@
         <v>{'begin': 3, 'look_for': '"def"'</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" ref="N16:N19" si="9">K16&amp;"}"</f>
+        <f t="shared" ref="N16:N18" si="9">K16&amp;"}"</f>
         <v>{'begin': 3, 'look_for': '"def"'}</v>
       </c>
       <c r="O16" t="str">
@@ -67935,6 +70487,5269 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="B1:V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17" style="10" customWidth="1"/>
+    <col min="11" max="11" width="4" style="10" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="10"/>
+    <col min="15" max="15" width="4.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="10"/>
+    <col min="17" max="17" width="5.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="10"/>
+    <col min="19" max="19" width="6.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" style="10" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X2" s="10" t="str">
+        <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2)</f>
+        <v>(1, (seg, msg), None, None, FALSE, NA, seg, msg, None, None),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X3" s="10" t="str">
+        <f t="shared" ref="X3:X66" si="0">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3)</f>
+        <v>(2, (seg, msg_dict_key), None, None, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, (seg_dict_key, msg), None, None, FALSE, NA, seg, msg, seg_dict, None),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, (seg_dict_key, msg_dict_key), None, None, FALSE, NA, seg, msg, seg_dict, msg_dict),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, (seg, msg_dict_sm_key), None, None, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, (msg_dict_sm_key, msg), None, None, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, (seg, BLANK), None, None, FALSE, NA, seg, None, None, None),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, (msg, BLANK), None, None, FALSE, FALSE, None, msg, None, None),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9, (msg_dict_key, BLANK), None, None, FALSE, FALSE, None, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(10, (msg, BLANK), None, None, FALSE, TRUE, msg, None, None, None),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(11, (msg_dict_key, BLANK), None, None, FALSE, TRUE, msg, None, msg_dict, None),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(12, (seg_dict_key, BLANK), None, None, FALSE, NA, seg, msg, seg_dict, None),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(13, (msg_dict_sm_key, BLANK), None, None, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(14, (seg, msg), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg, msg_kwarg),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(15, (seg, msg_dict_key), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(16, (seg_dict_key, msg), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg_dict, msg_kwarg),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(17, (seg_dict_key, msg_dict_key), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg_dict, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(18, (seg, msg_dict_sm_key), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(19, (msg_dict_sm_key, msg), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(20, (seg, msg_dict_sm_key), seg_kwarg_key2, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(21, (msg_dict_sm_key, msg), seg_kwarg, msg_kwarg_key2, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(22, (seg, BLANK), seg_kwarg, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(23, (msg, BLANK), seg_kwarg, msg_kwarg, FALSE, FALSE, None, msg, seg_kwarg, msg_kwarg),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(24, (msg_dict_key, BLANK), seg_kwarg, msg_kwarg, FALSE, FALSE, None, msg, seg_kwarg, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(25, (msg, BLANK), seg_kwarg, msg_kwarg, TRUE, TRUE, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(26, (msg_dict_key, BLANK), seg_kwarg, msg_kwarg, TRUE, TRUE, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(27, (seg_dict_key, BLANK), seg_kwarg, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(28, (msg_dict_sm_key, BLANK), seg_kwarg, msg_kwarg, FALSE, NA, seg, msg, seg_kwarg, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(29, (seg, msg), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, None),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(30, (seg, msg_dict_key), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, msg_dict),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(31, (seg_dict_key, msg), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg_dict, None),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(32, (seg_dict_key, msg_dict_key), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg_dict, msg_dict),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(33, (seg, msg_dict_sm_key), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, msg_dict),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(34, (msg_dict_sm_key, msg), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, msg_dict),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(35, (seg, BLANK), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, None),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(36, (msg, BLANK), seg_kwarg, None, FALSE, FALSE, None, msg, seg_kwarg, None),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(37, (msg_dict_key, BLANK), seg_kwarg, None, FALSE, FALSE, None, msg, seg_kwarg, msg_dict),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U39" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(38, (msg, BLANK), seg_kwarg, None, FALSE, TRUE, msg, None, seg_kwarg, None),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(39, (msg_dict_key, BLANK), seg_kwarg, None, FALSE, TRUE, msg, None, seg_kwarg_dict, None),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(40, (seg_dict_key, BLANK), seg_kwarg, None, FALSE, NA, seg, None, seg_kwarg_dict, None),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(41, (msg_dict_sm_key, BLANK), seg_kwarg, None, FALSE, NA, seg, msg, seg_kwarg, msg_dict),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(42, (seg, msg), None, msg_kwarg, FALSE, NA, seg, msg, None, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(43, (seg, msg_dict_key), None, msg_kwarg, FALSE, NA, seg, msg, None, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(44, (seg_dict_key, msg), None, msg_kwarg, FALSE, NA, seg, msg, seg_dict, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(45, (seg_dict_key, msg_dict_key), None, msg_kwarg, FALSE, NA, seg, msg, seg_dict, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U47" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(46, (seg, msg_dict_sm_key), None, msg_kwarg, FALSE, NA, seg, msg, None, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(47, (msg_dict_sm_key, msg), None, msg_kwarg, FALSE, NA, seg, msg, None, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(48, (seg, BLANK), None, msg_kwarg, TRUE, NA, None, None, None, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U50" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(49, (msg, BLANK), None, msg_kwarg, FALSE, FALSE, None, msg, None, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(50, (msg_dict_key, BLANK), None, msg_kwarg, FALSE, FALSE, None, msg, None, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U52" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(51, (msg, BLANK), None, msg_kwarg, TRUE, TRUE, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U53" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(52, (msg_dict_key, BLANK), None, msg_kwarg, TRUE, TRUE, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U54" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(53, (seg_dict_key, BLANK), None, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U55" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(54, (msg_dict_sm_key, BLANK), None, msg_kwarg, FALSE, NA, seg, msg, None, msg_kwarg_dict),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L56" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U56" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(55, (BLANK, BLANK), seg_kwarg, None, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T57" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U57" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(56, (BLANK, BLANK), seg_dict_key, None, FALSE, NA, seg, None, seg_dict, None),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U58" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V58" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(57, (BLANK, BLANK), msg_dict_sm_key, None, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T59" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U59" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(58, (BLANK, BLANK), None, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U60" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(59, (BLANK, BLANK), None, msg_dict_key, FALSE, NA, None, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U61" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(60, (BLANK, BLANK), None, msg_dict_sm_key, FALSE, NA, seg, msg, None, msg_dict),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(61, (BLANK, BLANK), seg_kwarg, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(62, (BLANK, BLANK), seg_dict_key, msg_kwarg, TRUE, NA, None, None, None, None),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R64" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T64" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(63, (BLANK, BLANK), seg_kwarg, msg_dict_key, TRUE, NA, None, None, seg_kwargs, msg_dict),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U65" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V65" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(64, (BLANK, BLANK), seg_kwarg, msg_dict_sm_key, FALSE, NA, seg, msg, seg_kwargs, msg_dict),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R66" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T66" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U66" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V66" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>(65, (BLANK, BLANK), seg_dict_sm_key, msg_kwarg, FALSE, NA, seg, msg, seg_dict, msg_kwargs),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T67" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="U67" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="X67" s="10" t="str">
+        <f t="shared" ref="X67" si="1">CONCATENATE(A67,B67,C67,D67,E67,F67,G67,H67,I67,J67,K67,L67,M67,N67,O67,P67,Q67,R67,S67,T67,U67,V67,W67)</f>
+        <v>(66, (BLANK, BLANK), seg_dict_sm_key, msg_dict_sm_key, FALSE, NA, seg, msg, seg_dict, msg_dict),</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:V103"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
